--- a/Errors/Errors_invalid_records.xlsx
+++ b/Errors/Errors_invalid_records.xlsx
@@ -410,7 +410,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -424,7 +424,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>37410.54201388889</v>
+        <v>37410.79201388889</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>21.61</v>
       </c>
       <c r="F3">
-        <v>34.14</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="4">
